--- a/CODE_WOOKIE/uploading_Bash_Script/orderlist.xlsx
+++ b/CODE_WOOKIE/uploading_Bash_Script/orderlist.xlsx
@@ -90,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,17 +113,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,12 +449,18 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="2">
+        <v>15621</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -452,8 +470,15 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>14270</v>
+      </c>
+      <c r="G2" s="1">
+        <f>F1+G1</f>
+        <v>15622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>15621</v>
       </c>
@@ -463,8 +488,15 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>17027</v>
+      </c>
+      <c r="G3" s="1">
+        <f>G2+F2</f>
+        <v>29892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>14270</v>
       </c>
@@ -475,8 +507,15 @@
       <c r="C4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>16664</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G16" si="0">G3+F3</f>
+        <v>46919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>17027</v>
       </c>
@@ -487,137 +526,237 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>17069</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>63583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>16664</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B25" si="0">B5+A5</f>
+        <f t="shared" ref="B6:B16" si="1">B5+A5</f>
         <v>46919</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>17227</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>80652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>17069</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63583</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>17798</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>97879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>17227</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80652</v>
       </c>
       <c r="C8" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8" s="6">
+        <v>15454</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>115677</v>
+      </c>
+      <c r="H8">
+        <v>201301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>17798</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97879</v>
       </c>
       <c r="C9" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" s="6">
+        <v>13789</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>131131</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>29243</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115677</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10" s="6">
+        <v>49525</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>144920</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>49525</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144920</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>194445</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>51590</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>194445</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>194445</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>16593</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>246035</v>
       </c>
       <c r="C13" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>51590-17687</f>
+        <v>33903</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>194445</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>17289</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262628</v>
       </c>
       <c r="C14" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>228348</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16131</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>279917</v>
       </c>
       <c r="C15" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>17687</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>228348</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16896</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>296048</v>
       </c>
       <c r="C16" s="3">
         <v>12</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>246035</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -681,7 +820,7 @@
         <v>70445</v>
       </c>
       <c r="B21" s="1">
-        <f>B20+A20</f>
+        <f t="shared" ref="B21:B26" si="2">B20+A20</f>
         <v>51214</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -702,7 +841,7 @@
         <v>75609</v>
       </c>
       <c r="B22" s="1">
-        <f>B21+A21</f>
+        <f t="shared" si="2"/>
         <v>121659</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -712,7 +851,7 @@
         <v>6161</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:F27" si="1">F21+E21</f>
+        <f t="shared" ref="F22:F27" si="3">F21+E21</f>
         <v>4291</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -724,7 +863,7 @@
         <v>28911</v>
       </c>
       <c r="B23" s="1">
-        <f>B22+A22</f>
+        <f t="shared" si="2"/>
         <v>197268</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -734,7 +873,7 @@
         <v>6445</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10452</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -746,7 +885,7 @@
         <v>42275</v>
       </c>
       <c r="B24" s="1">
-        <f>B23+A23</f>
+        <f t="shared" si="2"/>
         <v>226179</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -756,7 +895,7 @@
         <v>3826</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16897</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -768,7 +907,7 @@
         <v>44490</v>
       </c>
       <c r="B25" s="1">
-        <f>B24+A24</f>
+        <f t="shared" si="2"/>
         <v>268454</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -778,7 +917,7 @@
         <v>5800</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20723</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -788,7 +927,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
-        <f>B25+A25</f>
+        <f t="shared" si="2"/>
         <v>312944</v>
       </c>
       <c r="C26" s="1"/>
@@ -796,7 +935,7 @@
         <v>5995</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26523</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -806,7 +945,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
       <c r="F27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32518</v>
       </c>
       <c r="G27" s="1"/>

--- a/CODE_WOOKIE/uploading_Bash_Script/orderlist.xlsx
+++ b/CODE_WOOKIE/uploading_Bash_Script/orderlist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>01--02</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>PLAN_DEC2013_JAN2014_ONLY</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,8 +630,11 @@
       <c r="C10" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="6">
-        <v>49525</v>
+        <v>16118</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -649,9 +655,16 @@
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6">
+        <f>49525-17058-16118</f>
+        <v>16349</v>
+      </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>194445</v>
+        <f>G10+F10</f>
+        <v>161038</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -668,9 +681,15 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6">
+        <v>17058</v>
+      </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>194445</v>
+        <f>G11+F11</f>
+        <v>177387</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -688,8 +707,8 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <f>51590-17687</f>
-        <v>33903</v>
+        <f>51590-17687-17232</f>
+        <v>16671</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
@@ -710,9 +729,12 @@
       <c r="C14" s="3">
         <v>10</v>
       </c>
+      <c r="F14">
+        <v>17232</v>
+      </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>228348</v>
+        <v>211116</v>
       </c>
       <c r="H14">
         <v>7</v>
